--- a/reports/Portugal_2.1.3_export_top_5_partners_2003-2023.xlsx
+++ b/reports/Portugal_2.1.3_export_top_5_partners_2003-2023.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/develop/cipf-comtrade/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9463B03F-E65E-6F44-A49B-1FD9A555645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="25820" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,8 +74,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +89,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,27 +135,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,74 +462,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="8" width="8.83203125" style="7"/>
+    <col min="9" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -481,892 +545,892 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.1214681619606397</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.1812529539038063</v>
       </c>
-      <c r="F4">
-        <v>0.2127323554867971</v>
-      </c>
-      <c r="G4">
-        <v>0.06351850164279066</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="7">
+        <v>0.21273235548679709</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6.3518501642790659E-2</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.1000075127236074</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>3910247385</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>5834812000</v>
       </c>
-      <c r="L4">
-        <v>6848182464.609</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="4">
+        <v>6848182464.6090002</v>
+      </c>
+      <c r="M4" s="4">
         <v>2044758486</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>3219396003</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>0.124173901249064</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="7">
+        <v>0.12417390124906399</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.1581256067756926</v>
       </c>
-      <c r="F5">
-        <v>0.229382488322641</v>
-      </c>
-      <c r="G5">
-        <v>0.06403825448090693</v>
-      </c>
-      <c r="H5">
-        <v>0.09732123248145351</v>
-      </c>
-      <c r="J5">
+      <c r="F5" s="7">
+        <v>0.22938248832264099</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6.4038254480906928E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9.732123248145351E-2</v>
+      </c>
+      <c r="J5" s="4">
         <v>4523585446</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>5760427000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>8356275153.684</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>2332877626</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>3545357812</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.122473100781294</v>
       </c>
-      <c r="E6">
-        <v>0.1347121341055847</v>
-      </c>
-      <c r="F6">
-        <v>0.2507469559006232</v>
-      </c>
-      <c r="G6">
-        <v>0.06484282866871288</v>
-      </c>
-      <c r="H6">
-        <v>0.09033790744640081</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="7">
+        <v>0.13471213410558469</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.25074695590062318</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.4842828668712882E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9.0337907446400814E-2</v>
+      </c>
+      <c r="J6" s="4">
         <v>4561731166</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>5017596000</v>
       </c>
-      <c r="L6">
-        <v>9339521872.268999</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="4">
+        <v>9339521872.2689991</v>
+      </c>
+      <c r="M6" s="4">
         <v>2415187911</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>3364798027</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2006</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>0.1154846886660034</v>
-      </c>
-      <c r="E7">
-        <v>0.1199973648761025</v>
-      </c>
-      <c r="F7">
-        <v>0.2497122842153228</v>
-      </c>
-      <c r="G7">
-        <v>0.07326110883522421</v>
-      </c>
-      <c r="H7">
-        <v>0.1255747324595184</v>
-      </c>
-      <c r="J7">
+      <c r="D7" s="7">
+        <v>0.11548468866600339</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.11999736487610251</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.24971228421532279</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.3261108835224215E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.12557473245951839</v>
+      </c>
+      <c r="J7" s="4">
         <v>4957008101</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>5150708000</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>10718527538.785</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>3144623882</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>5390108189</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2007</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>0.03477923796066011</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="7">
+        <v>3.4779237960660112E-2</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.1196490556720094</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.1200843145581669</v>
       </c>
-      <c r="F8">
-        <v>0.2695403535703998</v>
-      </c>
-      <c r="G8">
-        <v>0.06726267098972838</v>
-      </c>
-      <c r="H8">
-        <v>0.06433042326074462</v>
-      </c>
-      <c r="I8">
+      <c r="F8" s="7">
+        <v>0.26954035357039979</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.7262670989728379E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6.4330423260744618E-2</v>
+      </c>
+      <c r="I8" s="4">
         <v>1641640086</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>5647642029</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>5668187000</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>12722770111.188</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>3174914215</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>3036507059</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2008</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>0.123042096828582</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.1220326061002286</v>
       </c>
-      <c r="F9">
-        <v>0.2804635960799388</v>
-      </c>
-      <c r="G9">
-        <v>0.0517459133706904</v>
-      </c>
-      <c r="H9">
-        <v>0.06514259717387091</v>
-      </c>
-      <c r="J9">
+      <c r="F9" s="7">
+        <v>0.28046359607993882</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5.17459133706904E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6.5142597173870914E-2</v>
+      </c>
+      <c r="J9" s="4">
         <v>6030558826</v>
       </c>
-      <c r="K9">
-        <v>5981081505.81</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="4">
+        <v>5981081505.8100004</v>
+      </c>
+      <c r="L9" s="4">
         <v>13746126393.375</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>2536178939</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>3192779337</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2009</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0.08952723587830147</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="7">
+        <v>8.952723587830147E-2</v>
+      </c>
+      <c r="D10" s="7">
         <v>0.121163744057013</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>0.1166218622081002</v>
       </c>
-      <c r="F10">
-        <v>0.2467205428125978</v>
-      </c>
-      <c r="G10">
-        <v>0.03938096410624457</v>
-      </c>
-      <c r="H10">
-        <v>0.05375808721210489</v>
-      </c>
-      <c r="I10">
+      <c r="F10" s="7">
+        <v>0.24672054281259781</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3.9380964106244573E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5.3758087212104892E-2</v>
+      </c>
+      <c r="I10" s="4">
         <v>3704037715</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>5012944645</v>
       </c>
-      <c r="K10">
-        <v>4825031977.973</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="4">
+        <v>4825031977.9729996</v>
+      </c>
+      <c r="L10" s="4">
         <v>10207644485.812</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>1629320674</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>2224149786</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2010</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0.056063231616054</v>
-      </c>
-      <c r="D11">
-        <v>0.1199835279608017</v>
-      </c>
-      <c r="E11">
-        <v>0.1145735550563449</v>
-      </c>
-      <c r="F11">
-        <v>0.2410678241585622</v>
-      </c>
-      <c r="G11">
-        <v>0.04784905702517553</v>
-      </c>
-      <c r="H11">
-        <v>0.05774655478626117</v>
-      </c>
-      <c r="I11">
+      <c r="C11" s="7">
+        <v>5.6063231616053998E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.11998352796080169</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.11457355505634489</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.24106782415856221</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4.7849057025175529E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5.7746554786261173E-2</v>
+      </c>
+      <c r="I11" s="4">
         <v>2607038140</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>5579443506</v>
       </c>
-      <c r="K11">
-        <v>5327870321.727</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="4">
+        <v>5327870321.7270002</v>
+      </c>
+      <c r="L11" s="4">
         <v>11210074656.635</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>2225064682</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>2685315606</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0.06109149589808063</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="7">
+        <v>6.1091495898080633E-2</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.1187303883881351</v>
       </c>
-      <c r="E12">
-        <v>0.1157748946772243</v>
-      </c>
-      <c r="F12">
-        <v>0.2274630727881631</v>
-      </c>
-      <c r="G12">
-        <v>0.04722563394887897</v>
-      </c>
-      <c r="H12">
-        <v>0.05109796301102466</v>
-      </c>
-      <c r="I12">
+      <c r="E12" s="7">
+        <v>0.11577489467722429</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.22746307278816311</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4.7225633948878971E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.1097963011024657E-2</v>
+      </c>
+      <c r="I12" s="4">
         <v>3455494969</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>6715701649</v>
       </c>
-      <c r="K12">
-        <v>6548531186.093</v>
-      </c>
-      <c r="L12">
-        <v>12865906982.603</v>
-      </c>
-      <c r="M12">
+      <c r="K12" s="4">
+        <v>6548531186.0930004</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12865906982.603001</v>
+      </c>
+      <c r="M12" s="4">
         <v>2671205511</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>2890234582</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>0.09414387832301468</v>
-      </c>
-      <c r="D13">
-        <v>0.1092269700069455</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="7">
+        <v>9.4143878323014685E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.10922697000694551</v>
+      </c>
+      <c r="E13" s="7">
         <v>0.1096810528414625</v>
       </c>
-      <c r="F13">
-        <v>0.2015030398508058</v>
-      </c>
-      <c r="G13">
-        <v>0.04738016579230153</v>
-      </c>
-      <c r="H13">
-        <v>0.04573897790890059</v>
-      </c>
-      <c r="I13">
+      <c r="F13" s="7">
+        <v>0.20150303985080581</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4.7380165792301532E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.5738977908900587E-2</v>
+      </c>
+      <c r="I13" s="4">
         <v>5378237289</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>6239901877</v>
       </c>
-      <c r="K13">
-        <v>6265842652.719</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="4">
+        <v>6265842652.7189999</v>
+      </c>
+      <c r="L13" s="4">
         <v>11511435284.768</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>2706726969</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>2612969435</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2013</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>0.07077572103488093</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="7">
+        <v>7.0775721034880931E-2</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.110102407607776</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>0.1106153388654115</v>
       </c>
-      <c r="F14">
-        <v>0.2158290481473447</v>
-      </c>
-      <c r="G14">
-        <v>0.04789748993260241</v>
-      </c>
-      <c r="H14">
-        <v>0.04942064235399396</v>
-      </c>
-      <c r="I14">
+      <c r="F14" s="7">
+        <v>0.21582904814734469</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4.7897489932602413E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4.942064235399396E-2</v>
+      </c>
+      <c r="I14" s="4">
         <v>4339196450</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>6750280594</v>
       </c>
-      <c r="K14">
-        <v>6781727952.779</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="4">
+        <v>6781727952.7790003</v>
+      </c>
+      <c r="L14" s="4">
         <v>13232286804.486</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>2936552468</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>3029935587</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2014</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
-        <v>0.0759341059962544</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="7">
+        <v>7.59341059962544E-2</v>
+      </c>
+      <c r="D15" s="7">
         <v>0.1067413054533763</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0.1098108381778486</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>0.2148460806189692</v>
       </c>
-      <c r="G15">
-        <v>0.05277856194138637</v>
-      </c>
-      <c r="H15">
-        <v>0.05877342208900673</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="7">
+        <v>5.2778561941386373E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.8773422089006731E-2</v>
+      </c>
+      <c r="I15" s="4">
         <v>4781920802</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>6721992210</v>
       </c>
-      <c r="K15">
-        <v>6915294839.892</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="4">
+        <v>6915294839.8920002</v>
+      </c>
+      <c r="L15" s="4">
         <v>13529848395.011</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>3323709418</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>3701233405</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>0.05031514180193761</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="7">
+        <v>5.0315141801937607E-2</v>
+      </c>
+      <c r="D16" s="7">
         <v>0.1090316564613996</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>0.1107780625510808</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>0.2181251771453756</v>
       </c>
-      <c r="G16">
-        <v>0.06143176235163992</v>
-      </c>
-      <c r="H16">
-        <v>0.06496740186446073</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="7">
+        <v>6.1431762351639919E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6.4967401864460733E-2</v>
+      </c>
+      <c r="I16" s="4">
         <v>2783117807.23</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>6030946824</v>
       </c>
-      <c r="K16">
-        <v>6127547046.374</v>
-      </c>
-      <c r="L16">
-        <v>12065315588.46</v>
-      </c>
-      <c r="M16">
+      <c r="K16" s="4">
+        <v>6127547046.3739996</v>
+      </c>
+      <c r="L16" s="4">
+        <v>12065315588.459999</v>
+      </c>
+      <c r="M16" s="4">
         <v>3398019475</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>3593588859</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
-        <v>0.03466331639659193</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="7">
+        <v>3.4663316396591932E-2</v>
+      </c>
+      <c r="D17" s="7">
         <v>0.1127143178305816</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.1149419270924293</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>0.2198151000771176</v>
       </c>
-      <c r="G17">
-        <v>0.06074311404300531</v>
-      </c>
-      <c r="H17">
-        <v>0.0657411788089407</v>
-      </c>
-      <c r="I17">
-        <v>1902467438.06</v>
-      </c>
-      <c r="J17">
+      <c r="G17" s="7">
+        <v>6.0743114043005308E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6.5741178808940703E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1902467438.0599999</v>
+      </c>
+      <c r="J17" s="4">
         <v>6186232068</v>
       </c>
-      <c r="K17">
-        <v>6308492559.088</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="4">
+        <v>6308492559.0880003</v>
+      </c>
+      <c r="L17" s="4">
         <v>12064369880.423</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>3333835552</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>3608150201</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2017</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
-        <v>0.04235977405518519</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="7">
+        <v>4.2359774055185193E-2</v>
+      </c>
+      <c r="D18" s="7">
         <v>0.1116733247418738</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>0.1100336885054721</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>0.2065595450025261</v>
       </c>
-      <c r="G18">
-        <v>0.0604293667333294</v>
-      </c>
-      <c r="H18">
-        <v>0.06449028405472718</v>
-      </c>
-      <c r="I18">
-        <v>2561556789.19</v>
-      </c>
-      <c r="J18">
-        <v>6753047426.346</v>
-      </c>
-      <c r="K18">
-        <v>6653896252.223</v>
-      </c>
-      <c r="L18">
-        <v>12490954370.623</v>
-      </c>
-      <c r="M18">
+      <c r="G18" s="7">
+        <v>6.0429366733329402E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6.4490284054727176E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2561556789.1900001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6753047426.3459997</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6653896252.2229996</v>
+      </c>
+      <c r="L18" s="4">
+        <v>12490954370.622999</v>
+      </c>
+      <c r="M18" s="4">
         <v>3654251187</v>
       </c>
-      <c r="N18">
-        <v>3899820729.496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="4">
+        <v>3899820729.4959998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2018</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>0.03265167872557401</v>
-      </c>
-      <c r="D19">
-        <v>0.1180996139720615</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="7">
+        <v>3.2651678725574007E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.11809961397206151</v>
+      </c>
+      <c r="E19" s="7">
         <v>0.1202157981206626</v>
       </c>
-      <c r="F19">
-        <v>0.2058923373106344</v>
-      </c>
-      <c r="G19">
-        <v>0.06014759282272468</v>
-      </c>
-      <c r="H19">
-        <v>0.06222710099113727</v>
-      </c>
-      <c r="I19">
+      <c r="F19" s="7">
+        <v>0.20589233731063439</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6.014759282272468E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6.222710099113727E-2</v>
+      </c>
+      <c r="I19" s="4">
         <v>2187650970.816</v>
       </c>
-      <c r="J19">
-        <v>7912632527.424</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="4">
+        <v>7912632527.4239998</v>
+      </c>
+      <c r="K19" s="4">
         <v>8054416119.809</v>
       </c>
-      <c r="L19">
-        <v>13794714060.089</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="4">
+        <v>13794714060.089001</v>
+      </c>
+      <c r="M19" s="4">
         <v>4029867528</v>
       </c>
-      <c r="N19">
-        <v>4169193842.634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="4">
+        <v>4169193842.6339998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2019</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>0.02781455064952409</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="7">
+        <v>2.7814550649524091E-2</v>
+      </c>
+      <c r="D20" s="7">
         <v>0.1189994103100603</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0.1260708096945832</v>
       </c>
-      <c r="F20">
-        <v>0.1946849856607984</v>
-      </c>
-      <c r="G20">
-        <v>0.06154152930939814</v>
-      </c>
-      <c r="H20">
-        <v>0.06185377536611825</v>
-      </c>
-      <c r="I20">
+      <c r="F20" s="7">
+        <v>0.19468498566079839</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6.1541529309398137E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.1853775366118247E-2</v>
+      </c>
+      <c r="I20" s="4">
         <v>1827182900.954</v>
       </c>
-      <c r="J20">
-        <v>7817264081.736</v>
-      </c>
-      <c r="K20">
-        <v>8281795765.315</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="4">
+        <v>7817264081.7360001</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8281795765.3149996</v>
+      </c>
+      <c r="L20" s="4">
         <v>12789172162.232</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>4042762778</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>4063274727.408</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
-        <v>0.02129643564192846</v>
-      </c>
-      <c r="D21">
-        <v>0.1169808029415677</v>
-      </c>
-      <c r="E21">
-        <v>0.1211670904483216</v>
-      </c>
-      <c r="F21">
-        <v>0.2019552656841496</v>
-      </c>
-      <c r="G21">
-        <v>0.06657660925641699</v>
-      </c>
-      <c r="H21">
-        <v>0.05258073041500072</v>
-      </c>
-      <c r="I21">
-        <v>1294540277.343</v>
-      </c>
-      <c r="J21">
-        <v>7110878253.525</v>
-      </c>
-      <c r="K21">
-        <v>7365348902.095</v>
-      </c>
-      <c r="L21">
+      <c r="C21" s="7">
+        <v>2.1296435641928461E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.11698080294156769</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.12116709044832159</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.20195526568414959</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.6576609256416994E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5.258073041500072E-2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1294540277.3429999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7110878253.5249996</v>
+      </c>
+      <c r="K21" s="4">
+        <v>7365348902.0950003</v>
+      </c>
+      <c r="L21" s="4">
         <v>12276196357.24</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>4046973102</v>
       </c>
-      <c r="N21">
-        <v>3196209660.565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="4">
+        <v>3196209660.5650001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
-        <v>0.01835932355302739</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="7">
+        <v>1.8359323553027392E-2</v>
+      </c>
+      <c r="D22" s="7">
         <v>0.1117523196649212</v>
       </c>
-      <c r="E22">
-        <v>0.1131987380044261</v>
-      </c>
-      <c r="F22">
-        <v>0.2174577589762683</v>
-      </c>
-      <c r="G22">
-        <v>0.06987169684592197</v>
-      </c>
-      <c r="H22">
-        <v>0.04905311994904474</v>
-      </c>
-      <c r="I22">
+      <c r="E22" s="7">
+        <v>0.11319873800442611</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.21745775897626829</v>
+      </c>
+      <c r="G22" s="7">
+        <v>6.9871696845921968E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4.9053119949044738E-2</v>
+      </c>
+      <c r="I22" s="4">
         <v>1357979633.711</v>
       </c>
-      <c r="J22">
-        <v>8265956732.371</v>
-      </c>
-      <c r="K22">
-        <v>8372943606.98</v>
-      </c>
-      <c r="L22">
-        <v>16084645331.8</v>
-      </c>
-      <c r="M22">
+      <c r="J22" s="4">
+        <v>8265956732.3710003</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8372943606.9799995</v>
+      </c>
+      <c r="L22" s="4">
+        <v>16084645331.799999</v>
+      </c>
+      <c r="M22" s="4">
         <v>5168182859</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>3628300229.493</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2022</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
-        <v>0.02357358337833739</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="7">
+        <v>2.3573583378337391E-2</v>
+      </c>
+      <c r="D23" s="7">
         <v>0.1055818711292081</v>
       </c>
-      <c r="E23">
-        <v>0.1088038405612037</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="7">
+        <v>0.10880384056120369</v>
+      </c>
+      <c r="F23" s="7">
         <v>0.2112749967375834</v>
       </c>
-      <c r="G23">
-        <v>0.07967120929508598</v>
-      </c>
-      <c r="H23">
-        <v>0.05916991804451194</v>
-      </c>
-      <c r="I23">
-        <v>1913296319.315</v>
-      </c>
-      <c r="J23">
+      <c r="G23" s="7">
+        <v>7.9671209295085976E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5.9169918044511938E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1913296319.3150001</v>
+      </c>
+      <c r="J23" s="4">
         <v>8569312614.71</v>
       </c>
-      <c r="K23">
-        <v>8830816441.101</v>
-      </c>
-      <c r="L23">
-        <v>17147654946.374</v>
-      </c>
-      <c r="M23">
+      <c r="K23" s="4">
+        <v>8830816441.1009998</v>
+      </c>
+      <c r="L23" s="4">
+        <v>17147654946.374001</v>
+      </c>
+      <c r="M23" s="4">
         <v>6466332634</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>4802391922.849</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2023</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>0.1212843151096278</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>0.1136148146350154</v>
       </c>
-      <c r="F24">
-        <v>0.2270410700805253</v>
-      </c>
-      <c r="G24">
-        <v>0.0893243094513467</v>
-      </c>
-      <c r="H24">
-        <v>0.06168755460136566</v>
-      </c>
-      <c r="J24">
-        <v>9169506093.127001</v>
-      </c>
-      <c r="K24">
-        <v>8589665812.299</v>
-      </c>
-      <c r="L24">
+      <c r="F24" s="7">
+        <v>0.22704107008052529</v>
+      </c>
+      <c r="G24" s="7">
+        <v>8.9324309451346701E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6.1687554601365657E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>9169506093.1270008</v>
+      </c>
+      <c r="K24" s="4">
+        <v>8589665812.2989998</v>
+      </c>
+      <c r="L24" s="4">
         <v>17165075909.541</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>6753221132</v>
       </c>
-      <c r="N24">
-        <v>4663788613.359</v>
+      <c r="N24" s="4">
+        <v>4663788613.3590002</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1438,39 @@
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:N1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E38F288B-5A07-B84E-A2D0-F17B85C40701}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E38F288B-5A07-B84E-A2D0-F17B85C40701}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I1:N1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>